--- a/INTERPOLACION.xlsx
+++ b/INTERPOLACION.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JAVIER\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEC976F6-AE58-4696-984F-A05F684F6A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8FC6D19-A3B8-4AEA-8747-7EBC7859ADEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{DEC6D3CE-13C5-435F-A4FA-5544463566F1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DEC6D3CE-13C5-435F-A4FA-5544463566F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Newton" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>h(ft)</t>
   </si>
@@ -51,18 +51,37 @@
     <t>6to nivel</t>
   </si>
   <si>
-    <t>h(m)</t>
+    <t>p(5,000)</t>
   </si>
   <si>
-    <t>p(5,000)</t>
+    <t>P(11,942)</t>
+  </si>
+  <si>
+    <t>P(13,615)</t>
+  </si>
+  <si>
+    <t>LA PAZ</t>
+  </si>
+  <si>
+    <t>EL ALTO</t>
+  </si>
+  <si>
+    <t>Utilizando el polinomio construido, se estima la temperatura para 11,942 ft que corresponde a la Ciudad de La Paz. El resultado aproximado es:</t>
+  </si>
+  <si>
+    <t>Utilizando el polinomio construido, se estima la temperatura para 13,615 ft que corresponde a la Ciudad de El Alto. El resultado aproximado es:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -73,7 +92,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -92,6 +111,36 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -194,20 +243,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -223,6 +288,874 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Newton!$D$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T(F)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Newton!$C$14:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Newton!$D$14:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>213.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>206.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>196.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>184.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>172.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>163.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-490E-4D2C-9039-7A722033CA35}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1024113343"/>
+        <c:axId val="1024114303"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1024113343"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1024114303"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1024114303"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1024113343"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -269,6 +1202,42 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>746760</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{928C36EB-BA63-2A0F-2795-DA39C1161973}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -571,10 +1540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4780C263-A4F6-4006-87A9-A01D460F8E10}">
-  <dimension ref="A12:J25"/>
+  <dimension ref="A12:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -589,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>1</v>
@@ -621,35 +1590,34 @@
         <v>0</v>
       </c>
       <c r="C14" s="6">
-        <f>+A14*0.3048</f>
-        <v>-0.30480000000000002</v>
+        <v>-1</v>
       </c>
       <c r="D14" s="7">
         <v>213.9</v>
       </c>
       <c r="E14" s="8">
         <f>+(D15-D14)/(C15-C14)</f>
-        <v>-6.2335958005249523</v>
+        <v>-1.9000000000000057</v>
       </c>
       <c r="F14" s="8">
         <f>+(E15-E14)/(C16-C14)</f>
-        <v>-8.9699253472575916E-2</v>
+        <v>-8.3333333333328596E-3</v>
       </c>
       <c r="G14" s="8">
         <f>+(F15-F14)/(C17-C14)</f>
-        <v>-1.315334219171682E-16</v>
+        <v>0</v>
       </c>
       <c r="H14" s="8">
         <f>+(G15-G14)/(C18-C14)</f>
-        <v>1.6666623295186467E-2</v>
+        <v>1.438492063492052E-4</v>
       </c>
       <c r="I14" s="8">
         <f>+(H15-H14)/(C19-C14)</f>
-        <v>-5.1419766508026248E-3</v>
+        <v>-1.3527106633513921E-5</v>
       </c>
       <c r="J14" s="8">
         <f>+(I15-I14)/(C20-C14)</f>
-        <v>9.4751140722609177E-4</v>
+        <v>7.5975614818035859E-7</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -660,31 +1628,30 @@
         <v>1</v>
       </c>
       <c r="C15" s="3">
-        <f t="shared" ref="C15:C20" si="0">+A15*0.3048</f>
         <v>0</v>
       </c>
       <c r="D15" s="5">
         <v>212</v>
       </c>
       <c r="E15" s="4">
-        <f t="shared" ref="E15:E19" si="1">+(D16-D15)/(C16-C15)</f>
-        <v>-6.3429571303587169</v>
+        <f t="shared" ref="E15:E19" si="0">+(D16-D15)/(C16-C15)</f>
+        <v>-1.9333333333333371</v>
       </c>
       <c r="F15" s="4">
-        <f t="shared" ref="F15:F18" si="2">+(E16-E15)/(C17-C15)</f>
-        <v>-8.9699253472576276E-2</v>
+        <f t="shared" ref="F15:F18" si="1">+(E16-E15)/(C17-C15)</f>
+        <v>-8.3333333333328596E-3</v>
       </c>
       <c r="G15" s="4">
-        <f t="shared" ref="G15:G17" si="3">+(F16-F15)/(C18-C15)</f>
-        <v>8.1279788485965246E-2</v>
+        <f t="shared" ref="G15:G17" si="2">+(F16-F15)/(C18-C15)</f>
+        <v>2.3015873015872833E-3</v>
       </c>
       <c r="H15" s="4">
-        <f t="shared" ref="H15:H16" si="4">+(G16-G15)/(C19-C15)</f>
-        <v>-1.9380689817600254E-2</v>
+        <f t="shared" ref="H15:H16" si="3">+(G16-G15)/(C19-C15)</f>
+        <v>-1.6727424622161498E-4</v>
       </c>
       <c r="I15" s="4">
         <f>+(H16-H15)/(C20-C15)</f>
-        <v>3.2332661799502459E-3</v>
+        <v>8.5058216637164792E-6</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -695,27 +1662,26 @@
         <v>2</v>
       </c>
       <c r="C16" s="3">
-        <f t="shared" si="0"/>
-        <v>0.9144000000000001</v>
+        <v>3</v>
       </c>
       <c r="D16" s="5">
         <v>206.2</v>
       </c>
       <c r="E16" s="4">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="F16" s="4">
         <f t="shared" si="1"/>
-        <v>-6.5616797900262469</v>
-      </c>
-      <c r="F16" s="4">
+        <v>2.6190476190476392E-2</v>
+      </c>
+      <c r="G16" s="4">
         <f t="shared" si="2"/>
-        <v>0.28191193948525683</v>
-      </c>
-      <c r="G16" s="4">
+        <v>-1.3784461152882461E-3</v>
+      </c>
+      <c r="H16" s="4">
         <f t="shared" si="3"/>
-        <v>-4.8679365154935025E-2</v>
-      </c>
-      <c r="H16" s="4">
-        <f t="shared" si="4"/>
-        <v>8.2132970685671255E-3</v>
+        <v>7.0888760362446417E-5</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -726,23 +1692,22 @@
         <v>3</v>
       </c>
       <c r="C17" s="3">
-        <f t="shared" si="0"/>
-        <v>2.4384000000000001</v>
+        <v>8</v>
       </c>
       <c r="D17" s="5">
         <v>196.2</v>
       </c>
       <c r="E17" s="4">
+        <f t="shared" si="0"/>
+        <v>-1.6857142857142833</v>
+      </c>
+      <c r="F17" s="4">
         <f t="shared" si="1"/>
-        <v>-5.5305586801649715</v>
-      </c>
-      <c r="F17" s="4">
+        <v>-2.8548592061789742E-16</v>
+      </c>
+      <c r="G17" s="4">
         <f t="shared" si="2"/>
-        <v>-2.91397119324188E-15</v>
-      </c>
-      <c r="G17" s="4">
-        <f t="shared" si="3"/>
-        <v>1.3905958507546463E-2</v>
+        <v>3.9377289377291443E-4</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -753,19 +1718,18 @@
         <v>4</v>
       </c>
       <c r="C18" s="3">
-        <f t="shared" si="0"/>
-        <v>4.5720000000000001</v>
+        <v>15</v>
       </c>
       <c r="D18" s="5">
         <v>184.4</v>
       </c>
       <c r="E18" s="4">
+        <f t="shared" si="0"/>
+        <v>-1.6857142857142873</v>
+      </c>
+      <c r="F18" s="4">
         <f t="shared" si="1"/>
-        <v>-5.530558680164984</v>
-      </c>
-      <c r="F18" s="4">
-        <f t="shared" si="2"/>
-        <v>8.4770723062000328E-2</v>
+        <v>7.8754578754580019E-3</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -776,15 +1740,14 @@
         <v>5</v>
       </c>
       <c r="C19" s="3">
-        <f t="shared" si="0"/>
-        <v>6.7056000000000004</v>
+        <v>22</v>
       </c>
       <c r="D19" s="5">
         <v>172.6</v>
       </c>
       <c r="E19" s="4">
-        <f t="shared" si="1"/>
-        <v>-5.1946631671041139</v>
+        <f t="shared" si="0"/>
+        <v>-1.5833333333333333</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -795,8 +1758,7 @@
         <v>6</v>
       </c>
       <c r="C20" s="3">
-        <f t="shared" si="0"/>
-        <v>8.5343999999999998</v>
+        <v>28</v>
       </c>
       <c r="D20" s="4">
         <v>163.1</v>
@@ -809,20 +1771,97 @@
       <c r="C22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C23" s="1">
+      <c r="B23" s="1">
         <v>5</v>
+      </c>
+      <c r="C23" s="16">
+        <v>16.404199999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C24" s="14">
+        <v>11.942</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C25" t="s">
+      <c r="C25" s="13">
+        <v>13.615</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B27" s="20"/>
+      <c r="C27" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="20">
+        <f>+D14+E14*(C23-C14)+F14*(C23-C14)*(C23-C15)+G14*(C23-C14)*(C23-C15)*(C23-C16)+H14*(C23-C14)*(C23-C15)*(C23-C16)*(C23-C17)+I14*(C23-C14)*(C23-C15)*(C23-C16)*(C23-C17)*(C23-C18)+J14*(C23-C14)*(C23-C15)*(C23-C16)*(C23-C17)*(C23-C18)*(C23-C19)</f>
+        <v>182.27643178207316</v>
+      </c>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+    </row>
+    <row r="28" spans="1:7" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+    </row>
+    <row r="29" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D25">
-        <f>+D14+E14*(C23-C14)+F14*(C23-C14)*(C23-C15)+G14*(C23-C14)*(C23-C15)*(C23-C16)+H14*(C23-C14)*(C23-C15)*(C23-C16)*(C23-C17)+I14*(C23-C14)*(C23-C15)*(C23-C16)*(C23-C17)*(C23-C18)+J14*(C23-C14)*(C23-C15)*(C23-C16)*(C23-C17)*(C23-C18)*(C23-C19)</f>
-        <v>182.27643258324193</v>
-      </c>
+      <c r="D29" s="23">
+        <f>+D14+E14*(C24-C14)+F14*(C24-C14)*(C24-C15)+G14*(C24-C14)*(C24-C15)*(C24-C16)+H14*(C24-C14)*(C24-C15)*(C24-C16)*(C24-C17)+I14*(C24-C14)*(C24-C15)*(C24-C16)*(C24-C17)*(C24-C18)+J14*(C24-C14)*(C24-C15)*(C24-C16)*(C24-C17)*(C24-C18)*(C24-C19)</f>
+        <v>189.15859731097606</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="15"/>
+    </row>
+    <row r="30" spans="1:7" ht="43.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+    </row>
+    <row r="31" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="21">
+        <f>+D14+E14*(C25-C14)+F14*(C25-C14)*(C25-C15)+G14*(C25-C14)*(C25-C15)*(C25-C16)+H14*(C25-C14)*(C25-C15)*(C25-C16)*(C25-C17)+I14*(C25-C14)*(C25-C15)*(C25-C16)*(C25-C17)*(C25-C18)+J14*(C25-C14)*(C25-C15)*(C25-C16)*(C25-C17)*(C25-C18)*(C25-C19)</f>
+        <v>186.50620621763147</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="19"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B30:F30"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
